--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,15 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -67,15 +67,18 @@
     <t>smaller</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
@@ -85,45 +88,36 @@
     <t>ok</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>favorite</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
   </si>
   <si>
     <t>loves</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
@@ -536,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.8461538461538461</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.7311827956989247</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L5">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.5471698113207547</v>
+        <v>0.53125</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7258064516129032</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C7">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7135922330097088</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.3352459016393443</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6824324324324325</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C9">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.3442622950819672</v>
+        <v>0.2826398852223816</v>
       </c>
       <c r="L9">
-        <v>420</v>
+        <v>197</v>
       </c>
       <c r="M9">
-        <v>420</v>
+        <v>197</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,16 +964,16 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.2998565279770445</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L10">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>488</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6134453781512605</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K11">
-        <v>0.2614107883817428</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>356</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5043478260869565</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.2416666666666667</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4698795180722892</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.2228915662650602</v>
+        <v>0.07712532865907099</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>129</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4566929133858268</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.1865443425076453</v>
+        <v>0.03439325113562622</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>266</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,31 +1211,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15">
-        <v>0.08150744960560911</v>
-      </c>
-      <c r="L15">
-        <v>93</v>
-      </c>
-      <c r="M15">
-        <v>93</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1048</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3707865168539326</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1274,30 +1238,6 @@
       </c>
       <c r="H16">
         <v>56</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16">
-        <v>0.03958468526930565</v>
-      </c>
-      <c r="L16">
-        <v>61</v>
-      </c>
-      <c r="M16">
-        <v>61</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1305,13 +1245,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.328125</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1323,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1331,13 +1271,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2985781990521327</v>
+        <v>0.328125</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1349,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>148</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1357,13 +1297,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2920792079207921</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1375,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1383,13 +1323,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2735042735042735</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1401,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1409,13 +1349,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2319587628865979</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1427,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1435,13 +1375,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1811594202898551</v>
+        <v>0.1839762611275964</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1453,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>226</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1461,13 +1401,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1676557863501484</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C23">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1479,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>561</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1487,13 +1427,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1613924050632911</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1505,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1513,13 +1453,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1588785046728972</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1531,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1539,13 +1479,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1487341772151899</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1557,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>269</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1565,13 +1505,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.145</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1583,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>171</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1591,13 +1531,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1365638766519824</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1609,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>392</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1617,25 +1557,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1210374639769452</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="C29">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1643,13 +1583,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1123595505617977</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1661,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>237</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1669,77 +1609,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1016483516483516</v>
+        <v>0.05756578947368421</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.0645879732739421</v>
-      </c>
-      <c r="C32">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>29</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.05107084019769358</v>
-      </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>0.03</v>
-      </c>
-      <c r="F33">
-        <v>0.97</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
